--- a/otmm_float/compare_time.xlsx
+++ b/otmm_float/compare_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_float\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681D6E61-E4DE-4B40-BF59-EDAAD9EB3D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56381B9B-B6B5-4BE5-B168-C55B73FAAB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{7F160332-8270-4BD0-8869-009C7DFA1949}"/>
   </bookViews>
